--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -286,7 +286,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -294,6 +294,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="105">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,13 +800,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -815,8 +816,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Arizona</t>
-        </is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -936,7 +940,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1854,9 +1858,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2691,9 +2695,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
